--- a/modulos/conteudo/arquivos/ListaTurnos.xlsx
+++ b/modulos/conteudo/arquivos/ListaTurnos.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
-  <si>
-    <t>Escala mês: 08/2025 - DAF - SAD - SETOR DE ADMINISTRAÇÃO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+  <si>
+    <t>Escala mês: 09/2025 - DAF - SAD - SETOR DE ADMINISTRAÇÃO</t>
   </si>
   <si>
     <t>Data</t>
@@ -35,166 +35,178 @@
     <t>Vale Ref</t>
   </si>
   <si>
-    <t>01/08/2025</t>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>Seg</t>
+  </si>
+  <si>
+    <t>Elton Paulino</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>07:00 / 17:00</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Amorim</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>08:00 / 17:00</t>
+  </si>
+  <si>
+    <t>Gilvânio</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>11:00 / 20:00</t>
+  </si>
+  <si>
+    <t>Manoel de Oliveira</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>07:00 / 16:00</t>
+  </si>
+  <si>
+    <t>Saulo</t>
+  </si>
+  <si>
+    <t>Victor Hugo</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>08:00 / 14:15</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>13:45 / 20:00</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>Qua</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IAQ</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>Qui</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>09:00 / 18:00</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
   </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>Elton Paulino</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>07:00 / 16:00</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Amorim</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>09:00 / 18:00</t>
-  </si>
-  <si>
-    <t>Gilvânio</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>13:45 / 20:00</t>
-  </si>
-  <si>
-    <t>Manoel de Oliveira</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>FÉRIAS</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>07:00 / 13:15</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>Sáb</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>FOLGA</t>
   </si>
   <si>
     <t>Sem Vale</t>
   </si>
   <si>
-    <t>Saulo</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>07:00 / 13:15</t>
-  </si>
-  <si>
-    <t>Victor Hugo</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>08:00 / 14:15</t>
-  </si>
-  <si>
-    <t>02/08/2025</t>
-  </si>
-  <si>
-    <t>Sáb</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>FOLGA</t>
-  </si>
-  <si>
-    <t>03/08/2025</t>
+    <t>07/09/2025</t>
   </si>
   <si>
     <t>Dom</t>
   </si>
   <si>
-    <t>04/08/2025</t>
-  </si>
-  <si>
-    <t>Seg</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>07:00 / 17:00</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>08:00 / 17:00</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>11:00 / 20:00</t>
-  </si>
-  <si>
-    <t>05/08/2025</t>
-  </si>
-  <si>
-    <t>Ter</t>
-  </si>
-  <si>
-    <t>06/08/2025</t>
-  </si>
-  <si>
-    <t>Qua</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>IAQ</t>
-  </si>
-  <si>
-    <t>07/08/2025</t>
-  </si>
-  <si>
-    <t>Qui</t>
-  </si>
-  <si>
-    <t>08/08/2025</t>
-  </si>
-  <si>
-    <t>09/08/2025</t>
-  </si>
-  <si>
-    <t>10/08/2025</t>
-  </si>
-  <si>
-    <t>11/08/2025</t>
-  </si>
-  <si>
-    <t>12/08/2025</t>
-  </si>
-  <si>
-    <t>13/08/2025</t>
-  </si>
-  <si>
-    <t>14/08/2025</t>
-  </si>
-  <si>
-    <t>15/08/2025</t>
-  </si>
-  <si>
-    <t>16/08/2025</t>
-  </si>
-  <si>
-    <t>17/08/2025</t>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>13/09/2025</t>
+  </si>
+  <si>
+    <t>14/09/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>08:00 / 18:00</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t>21/09/2025</t>
   </si>
   <si>
     <t>D</t>
@@ -203,52 +215,37 @@
     <t>11:00 / 15:00</t>
   </si>
   <si>
-    <t>18/08/2025</t>
-  </si>
-  <si>
-    <t>19/08/2025</t>
-  </si>
-  <si>
-    <t>20/08/2025</t>
-  </si>
-  <si>
-    <t>21/08/2025</t>
-  </si>
-  <si>
-    <t>22/08/2025</t>
-  </si>
-  <si>
-    <t>23/08/2025</t>
-  </si>
-  <si>
-    <t>24/08/2025</t>
-  </si>
-  <si>
-    <t>25/08/2025</t>
-  </si>
-  <si>
-    <t>26/08/2025</t>
-  </si>
-  <si>
-    <t>27/08/2025</t>
-  </si>
-  <si>
-    <t>28/08/2025</t>
-  </si>
-  <si>
-    <t>29/08/2025</t>
-  </si>
-  <si>
-    <t>30/08/2025</t>
-  </si>
-  <si>
-    <t>31/08/2025</t>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>27/09/2025</t>
+  </si>
+  <si>
+    <t>28/09/2025</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
   </si>
   <si>
     <t>Contagem:</t>
   </si>
   <si>
-    <t>Contagem Geral Mês: 08/2025</t>
+    <t>Contagem Geral Mês: 09/2025</t>
   </si>
   <si>
     <t>Ana Cristina Silva</t>
@@ -323,7 +320,7 @@
     <t>Henrique Batalha de Souza</t>
   </si>
   <si>
-    <t>Janete Teixeira da Vitoria</t>
+    <t>Janete Teixeira da Silva</t>
   </si>
   <si>
     <t>Joao Gabryel Goncalves Neves</t>
@@ -429,9 +426,6 @@
   </si>
   <si>
     <t>Willian Massen Marinho</t>
-  </si>
-  <si>
-    <t>Yago Henrique de Jesus Souza</t>
   </si>
   <si>
     <t>Yan de Souza Rodrigues</t>
@@ -798,10 +792,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C268" sqref="C268"/>
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -896,18 +890,18 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -915,13 +909,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -929,22 +923,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -952,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -966,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -986,18 +980,18 @@
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1005,36 +999,36 @@
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1042,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1056,13 +1050,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1076,52 +1070,52 @@
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1132,10 +1126,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1146,10 +1140,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1166,18 +1160,18 @@
         <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1185,13 +1179,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1199,19 +1193,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1222,10 +1216,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1236,10 +1230,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1250,24 +1244,24 @@
         <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1275,13 +1269,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -1289,22 +1283,22 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1312,10 +1306,10 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -1326,13 +1320,13 @@
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1340,24 +1334,24 @@
         <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
@@ -1365,36 +1359,36 @@
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1402,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1416,10 +1410,10 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>11</v>
@@ -1430,46 +1424,46 @@
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
@@ -1506,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
@@ -1520,24 +1514,24 @@
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>11</v>
@@ -1545,13 +1539,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>11</v>
@@ -1559,22 +1553,22 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1582,10 +1576,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>11</v>
@@ -1596,10 +1590,10 @@
         <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>11</v>
@@ -1610,24 +1604,24 @@
         <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="C56" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
@@ -1635,36 +1629,36 @@
     </row>
     <row r="57" spans="1:6">
       <c r="C57" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1672,13 +1666,13 @@
         <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1686,13 +1680,13 @@
         <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1700,49 +1694,49 @@
         <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="C62" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>8</v>
@@ -1762,10 +1756,10 @@
         <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>11</v>
@@ -1776,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>11</v>
@@ -1790,24 +1784,24 @@
         <v>18</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="C68" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>11</v>
@@ -1815,13 +1809,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="C69" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>11</v>
@@ -1829,19 +1823,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>11</v>
@@ -1852,10 +1846,10 @@
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>11</v>
@@ -1866,10 +1860,10 @@
         <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>11</v>
@@ -1880,24 +1874,24 @@
         <v>18</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>11</v>
@@ -1905,13 +1899,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>11</v>
@@ -1919,22 +1913,22 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1942,10 +1936,10 @@
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>11</v>
@@ -1956,10 +1950,10 @@
         <v>15</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>11</v>
@@ -1970,24 +1964,24 @@
         <v>18</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="C80" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>11</v>
@@ -1995,36 +1989,36 @@
     </row>
     <row r="81" spans="1:6">
       <c r="C81" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2032,13 +2026,13 @@
         <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2046,13 +2040,13 @@
         <v>15</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2060,46 +2054,46 @@
         <v>18</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="C86" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="C87" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
@@ -2156,18 +2150,18 @@
         <v>20</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>11</v>
@@ -2175,13 +2169,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="C93" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>11</v>
@@ -2189,22 +2183,22 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2212,10 +2206,10 @@
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>11</v>
@@ -2246,18 +2240,18 @@
         <v>20</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="C98" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>11</v>
@@ -2265,36 +2259,36 @@
     </row>
     <row r="99" spans="1:6">
       <c r="C99" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2302,13 +2296,13 @@
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2316,13 +2310,13 @@
         <v>15</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2336,52 +2330,52 @@
         <v>20</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="C104" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="C105" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>11</v>
@@ -2392,10 +2386,10 @@
         <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>11</v>
@@ -2406,10 +2400,10 @@
         <v>15</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>11</v>
@@ -2426,18 +2420,18 @@
         <v>20</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="C110" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>11</v>
@@ -2445,13 +2439,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="C111" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>11</v>
@@ -2459,19 +2453,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>11</v>
@@ -2482,10 +2476,10 @@
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>11</v>
@@ -2496,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>11</v>
@@ -2510,24 +2504,24 @@
         <v>18</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="C116" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>11</v>
@@ -2535,13 +2529,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="C117" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>11</v>
@@ -2549,22 +2543,22 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2572,13 +2566,13 @@
         <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2586,10 +2580,10 @@
         <v>15</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>11</v>
@@ -2600,10 +2594,10 @@
         <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>11</v>
@@ -2611,13 +2605,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="C122" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>11</v>
@@ -2625,36 +2619,36 @@
     </row>
     <row r="123" spans="1:6">
       <c r="C123" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2662,13 +2656,13 @@
         <v>12</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2676,13 +2670,13 @@
         <v>15</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2690,41 +2684,41 @@
         <v>18</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="C128" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="C129" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2766,10 +2760,10 @@
         <v>15</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>11</v>
@@ -2780,10 +2774,10 @@
         <v>18</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>11</v>
@@ -2791,13 +2785,13 @@
     </row>
     <row r="134" spans="1:6">
       <c r="C134" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>11</v>
@@ -2805,13 +2799,13 @@
     </row>
     <row r="135" spans="1:6">
       <c r="C135" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>11</v>
@@ -2822,19 +2816,19 @@
         <v>67</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2842,10 +2836,10 @@
         <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>11</v>
@@ -2856,10 +2850,10 @@
         <v>15</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>11</v>
@@ -2870,10 +2864,10 @@
         <v>18</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>11</v>
@@ -2881,13 +2875,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="C140" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>11</v>
@@ -2895,16 +2889,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="C141" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2912,19 +2906,19 @@
         <v>68</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2932,13 +2926,13 @@
         <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2946,13 +2940,13 @@
         <v>15</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2960,41 +2954,41 @@
         <v>18</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="C146" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="C147" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3002,16 +2996,16 @@
         <v>69</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>11</v>
@@ -3022,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>11</v>
@@ -3036,10 +3030,10 @@
         <v>15</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>11</v>
@@ -3050,10 +3044,10 @@
         <v>18</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>11</v>
@@ -3061,13 +3055,13 @@
     </row>
     <row r="152" spans="1:6">
       <c r="C152" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>11</v>
@@ -3075,13 +3069,13 @@
     </row>
     <row r="153" spans="1:6">
       <c r="C153" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>11</v>
@@ -3092,16 +3086,16 @@
         <v>70</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>11</v>
@@ -3112,10 +3106,10 @@
         <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>11</v>
@@ -3126,10 +3120,10 @@
         <v>15</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>11</v>
@@ -3140,10 +3134,10 @@
         <v>18</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>11</v>
@@ -3151,13 +3145,13 @@
     </row>
     <row r="158" spans="1:6">
       <c r="C158" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>11</v>
@@ -3165,13 +3159,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="C159" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>11</v>
@@ -3182,19 +3176,19 @@
         <v>71</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3202,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>11</v>
@@ -3216,10 +3210,10 @@
         <v>15</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>11</v>
@@ -3230,10 +3224,10 @@
         <v>18</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>11</v>
@@ -3241,13 +3235,13 @@
     </row>
     <row r="164" spans="1:6">
       <c r="C164" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>11</v>
@@ -3255,16 +3249,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="C165" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3272,19 +3266,19 @@
         <v>72</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3292,13 +3286,13 @@
         <v>12</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3306,13 +3300,13 @@
         <v>15</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3320,41 +3314,41 @@
         <v>18</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="C170" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="C171" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3396,10 +3390,10 @@
         <v>15</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>11</v>
@@ -3410,10 +3404,10 @@
         <v>18</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>11</v>
@@ -3421,13 +3415,13 @@
     </row>
     <row r="176" spans="1:6">
       <c r="C176" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>11</v>
@@ -3435,13 +3429,13 @@
     </row>
     <row r="177" spans="1:6">
       <c r="C177" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>11</v>
@@ -3452,19 +3446,19 @@
         <v>74</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3472,10 +3466,10 @@
         <v>12</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>11</v>
@@ -3486,10 +3480,10 @@
         <v>15</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>11</v>
@@ -3500,10 +3494,10 @@
         <v>18</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>11</v>
@@ -3511,13 +3505,13 @@
     </row>
     <row r="182" spans="1:6">
       <c r="C182" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>11</v>
@@ -3525,193 +3519,151 @@
     </row>
     <row r="183" spans="1:6">
       <c r="C183" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="C188" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="C185" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="C186" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="C187" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="C188" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="C189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="C190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1">
         <v>25</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F189" s="1" t="s">
+    </row>
+    <row r="191" spans="1:6">
+      <c r="C191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="C192" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="C193" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D193" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="C199" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="C195" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="C196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="C197" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="C198" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D198" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="C199" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D199" s="1">
-        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="C200" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D200" s="1">
-        <v>21</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="C201" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D201" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="C202" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="C203" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D203" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="C204" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="C205" s="3" t="s">
-        <v>77</v>
+      <c r="C205" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D205" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="C206" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D206" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="C207" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D207" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="C208" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D208" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="C209" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D209" s="1">
         <v>26</v>
@@ -3719,7 +3671,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="C210" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
@@ -3727,47 +3679,47 @@
     </row>
     <row r="211" spans="1:6">
       <c r="C211" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D211" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="C212" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D212" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="C213" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D213" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="C214" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D214" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="C215" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D215" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="C216" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -3775,31 +3727,31 @@
     </row>
     <row r="217" spans="1:6">
       <c r="C217" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D217" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="C218" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D218" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="C219" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D219" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="C220" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D220" s="1">
         <v>26</v>
@@ -3807,7 +3759,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="C221" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -3815,15 +3767,15 @@
     </row>
     <row r="222" spans="1:6">
       <c r="C222" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D222" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="C223" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D223" s="1">
         <v>26</v>
@@ -3831,23 +3783,23 @@
     </row>
     <row r="224" spans="1:6">
       <c r="C224" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D224" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="C225" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D225" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="C226" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D226" s="1">
         <v>26</v>
@@ -3855,39 +3807,39 @@
     </row>
     <row r="227" spans="1:6">
       <c r="C227" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D227" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="C228" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D228" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="C229" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D229" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="C230" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D230" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="C231" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D231" s="1">
         <v>26</v>
@@ -3895,47 +3847,47 @@
     </row>
     <row r="232" spans="1:6">
       <c r="C232" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D232" s="1">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="C233" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D233" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="C234" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D234" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="C235" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D235" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="C236" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D236" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="C237" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D237" s="1">
         <v>26</v>
@@ -3943,143 +3895,143 @@
     </row>
     <row r="238" spans="1:6">
       <c r="C238" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D238" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="C239" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D239" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="C240" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D240" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="C241" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D241" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="C242" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D242" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="C243" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D243" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="C244" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D244" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="C245" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D245" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="C246" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D246" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="C247" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D247" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="C248" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D248" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="C249" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D249" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="C250" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D250" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="C251" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D251" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="C252" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D252" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="C253" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D253" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="C254" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D254" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="C255" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D255" s="1">
         <v>26</v>
@@ -4087,15 +4039,15 @@
     </row>
     <row r="256" spans="1:6">
       <c r="C256" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D256" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="C257" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D257" s="1">
         <v>26</v>
@@ -4103,90 +4055,34 @@
     </row>
     <row r="258" spans="1:6">
       <c r="C258" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D258" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="C259" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D259" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="C260" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D260" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="C261" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D261" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="C262" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D262" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="C263" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D263" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="C264" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D264" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="C265" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D265" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="C266" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D266" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="C267" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D267" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="C268" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D268" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
